--- a/Results/Results_NASDAQ_horizon5.xlsx
+++ b/Results/Results_NASDAQ_horizon5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,22 +585,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.57 (0.29)</t>
+          <t>0.60 (0.32)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.24 (1.28)</t>
+          <t>2.34 (1.33)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.05 (0.03)</t>
+          <t>0.06 (0.03)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>47.05 (5.75)</t>
+          <t>44.32 (6.20)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -615,26 +615,26 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.39960711 0.79739565 0.53868188 0.52566021 0.46310026 0.35669824
- 0.32631916 1.34123504 0.32515641 0.61439934]</t>
+          <t>[0.39008678 1.02329267 0.53645178 0.51858914 0.46310026 0.35721421
+ 0.37129809 1.34927553 0.33402176 0.62241347]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1.53530517 2.80357881 2.35338478 2.09708299 1.66413112 1.33061303
- 1.28545279 5.72948157 1.16565807 2.43876909]</t>
+          <t>[1.49872771 3.59781453 2.34364193 2.06887349 1.66413112 1.33253778
+ 1.46263605 5.76382886 1.1974396  2.47058001]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.09603006 0.09354684 0.06310674 0.06066973 0.04752924 0.0354905
- 0.02071408 0.06848556 0.02133626 0.03689078]</t>
+          <t>[0.09154934 0.11914329 0.06265498 0.05841064 0.04752924 0.03439601
+ 0.02239146 0.06919984 0.02131821 0.03761098]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[50.         43.18181818 43.18181818 45.45454545 38.63636364 59.09090909
- 50.         40.90909091 47.72727273 52.27272727]</t>
+          <t>[50.         31.81818182 43.18181818 45.45454545 38.63636364 52.27272727
+ 43.18181818 38.63636364 50.         50.        ]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.57 $\pm$ 0.29 &amp; 2.24 $\pm$ 1.28 &amp; 0.05 $\pm$ 2.55 &amp; 47.05 $\pm$ 5.75 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.60 $\pm$ 0.32 &amp; 2.34 $\pm$ 1.33 &amp; 0.06 $\pm$ 2.95 &amp; 44.32 $\pm$ 6.20 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.52 (0.26)</t>
+          <t>0.52 (0.27)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.02 (1.10)</t>
+          <t>2.04 (1.12)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>46.36 (7.06)</t>
+          <t>47.05 (7.33)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 4, max\_features: 2, n\_estimators: 150 \\</t>
+          <t>max\_depth: 4, max\_features: 10, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.33109635 0.83613878 0.45744781 0.43615347 0.58608611 0.278654
- 0.23372269 1.12219165 0.3421841  0.54700134]</t>
+          <t>[0.33686262 0.8245447  0.45982361 0.45230531 0.58487554 0.27688822
+ 0.22944247 1.14403433 0.34565784 0.56005474]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[1.27208433 2.93979654 1.99849066 1.7400024  2.10607555 1.03947986
- 0.92069214 4.79377303 1.22670091 2.17124249]</t>
+          <t>[1.29423856 2.89903268 2.00887002 1.80443898 2.10172544 1.03289286
+ 0.90383127 4.88708048 1.23915394 2.22305606]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.08370458 0.09944582 0.05164997 0.04745696 0.06485614 0.02772601
- 0.01653155 0.05725239 0.02259327 0.03351279]</t>
+          <t>[0.0848464  0.09761012 0.05198061 0.04931173 0.06467897 0.02758689
+ 0.0158446  0.05838049 0.02277688 0.03438254]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[50.         40.90909091 40.90909091 59.09090909 38.63636364 52.27272727
- 54.54545455 36.36363636 45.45454545 45.45454545]</t>
+          <t>[47.72727273 43.18181818 38.63636364 52.27272727 36.36363636 54.54545455
+ 61.36363636 40.90909091 50.         45.45454545]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.52 $\pm$ 0.26 &amp; 2.02 $\pm$ 1.10 &amp; 0.05 $\pm$ 2.55 &amp; 46.36 $\pm$ 7.06 &amp; "-"</t>
+          <t>Random Forest &amp; 0.52 $\pm$ 0.27 &amp; 2.04 $\pm$ 1.12 &amp; 0.05 $\pm$ 2.53 &amp; 47.05 $\pm$ 7.33 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -837,20 +837,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.26257611 0.8142307  0.86519862 0.6280532  0.93205548 0.59884801
- 0.59696397 1.48319483 0.83720528 1.10974745]</t>
+          <t>[0.26257611 0.8142307  0.86519862 0.6280532  0.93205549 0.59884793
+ 0.59696311 1.48319185 0.83719797 1.10974745]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[1.00882707 2.86276949 3.77986588 2.50557234 3.34930182 2.23391894
- 2.35159038 6.3359047  3.00130974 4.40498159]</t>
+          <t>[1.00882707 2.86276949 3.77986588 2.50557234 3.34930182 2.23391863
+ 2.35158698 6.33589197 3.00128351 4.40498159]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.06243637 0.10697831 0.11005383 0.07737349 0.1132421  0.05939624
- 0.04589833 0.07662829 0.05914186 0.0741391 ]</t>
+          <t>[0.06243637 0.10697831 0.11005383 0.07737349 0.1132421  0.05939623
+ 0.04589826 0.07662813 0.05914128 0.0741391 ]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.52 (0.23)</t>
+          <t>0.52 (0.24)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.05 (0.94)</t>
+          <t>2.05 (1.03)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>50.91 (7.41)</t>
+          <t>48.64 (6.52)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -906,31 +906,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.1, max\_depth: 2, max\_features: 2, n\_estimators: 200 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 4, max\_features: 8, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.38377132 0.8724605  0.501858   0.49000332 0.4900114  0.30044993
- 0.28977161 0.99922318 0.34862834 0.56486906]</t>
+          <t>[0.36717726 0.82074524 0.49490744 0.48451529 0.51994942 0.27952489
+ 0.26959984 1.08767176 0.35791847 0.56741204]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[1.4744635  3.06750077 2.19250919 1.95483246 1.76083517 1.12078654
- 1.14148286 4.26847691 1.24980294 2.24216581]</t>
+          <t>[1.4107085  2.88567408 2.16214368 1.93293836 1.86841617 1.04272858
+ 1.0620212  4.64631113 1.28310728 2.25225983]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.09431394 0.10344039 0.05797618 0.05501577 0.05093942 0.0301553
- 0.02007991 0.05099063 0.02291136 0.03451224]</t>
+          <t>[0.0903892  0.09682254 0.05705141 0.05397406 0.05515866 0.02829059
+ 0.01834353 0.05558715 0.02326859 0.03484745]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[56.81818182 43.18181818 50.         54.54545455 38.63636364 61.36363636
- 61.36363636 43.18181818 52.27272727 47.72727273]</t>
+          <t>[50.         45.45454545 45.45454545 54.54545455 38.63636364 63.63636364
+ 52.27272727 45.45454545 45.45454545 45.45454545]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.52 $\pm$ 0.23 &amp; 2.05 $\pm$ 0.94 &amp; 0.05 $\pm$ 2.67 &amp; 50.91 $\pm$ 7.41 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.52 $\pm$ 0.24 &amp; 2.05 $\pm$ 1.03 &amp; 0.05 $\pm$ 2.52 &amp; 48.64 $\pm$ 6.52 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.01 (0.26)</t>
+          <t>1.00 (0.26)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>52.05 (3.44)</t>
+          <t>52.27 (3.21)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1133,26 +1133,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.14768178 0.30543055 0.29663691 0.24433434 0.14786963 0.32156462
- 0.24475288 0.26133594 0.28039407 0.34492005]</t>
+          <t>[0.14912104 0.29107429 0.28656275 0.24727687 0.14778047 0.32595253
+ 0.24377284 0.26128342 0.28037719 0.34480416]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.56739883 1.0738692  1.29594256 0.974754   0.53136324 1.19955195
- 0.96414279 1.11637362 1.0051889  1.36911011]</t>
+          <t>[0.57292849 1.02339373 1.25193073 0.98649301 0.53104283 1.21592042
+ 0.96028219 1.11614929 1.00512838 1.36865013]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.03761123 0.03662586 0.03279718 0.02738759 0.01526675 0.02975162
- 0.01599942 0.01083705 0.01772936 0.02051163]</t>
+          <t>[0.03809219 0.03433737 0.0316692  0.02778352 0.01529251 0.03019807
+ 0.01605797 0.01085525 0.0177215  0.02050283]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>[56.81818182 54.54545455 47.72727273 52.27272727 52.27272727 47.72727273
- 50.         54.54545455 47.72727273 56.81818182]</t>
+ 50.         54.54545455 50.         56.81818182]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.26 $\pm$ 0.06 &amp; 1.01 $\pm$ 0.26 &amp; 0.02 $\pm$ 0.91 &amp; 52.05 $\pm$ 3.44 &amp; "-"</t>
+          <t>MLP &amp; 0.26 $\pm$ 0.06 &amp; 1.00 $\pm$ 0.26 &amp; 0.02 $\pm$ 0.88 &amp; 52.27 $\pm$ 3.21 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.00 (0.29)</t>
+          <t>1.02 (0.27)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>51.59 (4.55)</t>
+          <t>51.14 (4.22)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.19870116 0.1781074  0.33256504 0.25325206 0.1451455  0.3120263
- 0.24658784 0.2603471  0.28082644 0.34901299]</t>
+          <t>[0.1981503  0.17677918 0.33724193 0.26590213 0.18656164 0.3127366
+ 0.24647778 0.26038    0.28103783 0.34858705]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.76341714 0.62621126 1.45290482 1.01033058 0.52157421 1.16397057
- 0.97137119 1.11214954 1.00673891 1.38535644]</t>
+          <t>[0.76130072 0.62154134 1.47333713 1.0607971  0.67040133 1.16662024
+ 0.97093761 1.11229005 1.00749671 1.38366576]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.04849503 0.02121104 0.03403219 0.02797526 0.01487682 0.02869281
- 0.01667869 0.01087563 0.01771205 0.02020742]</t>
+          <t>[0.04735128 0.02109202 0.03391137 0.02905035 0.0201369  0.0288181
+ 0.01664644 0.01087097 0.0177567  0.02018225]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[56.81818182 52.27272727 47.72727273 45.45454545 54.54545455 47.72727273
+          <t>[54.54545455 52.27272727 47.72727273 45.45454545 52.27272727 47.72727273
  50.         50.         50.         61.36363636]</t>
         </is>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.26 $\pm$ 0.06 &amp; 1.00 $\pm$ 0.29 &amp; 0.02 $\pm$ 1.05 &amp; 51.59 $\pm$ 4.55 &amp; "-"</t>
+          <t>CNN &amp; 0.26 $\pm$ 0.06 &amp; 1.02 $\pm$ 0.27 &amp; 0.02 $\pm$ 1.00 &amp; 51.14 $\pm$ 4.22 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.24 (4.83)</t>
+          <t>8.24 (4.84)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1281,20 +1281,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.25737038 1.03923737 1.37097255 1.34235839 1.84591689 1.98113829
- 2.48087855 4.37320503 2.9436003  3.37328129]</t>
+          <t>[0.25737106 1.03899328 1.36118997 1.34294873 1.84750303 1.98315225
+ 2.4793844  4.37083871 2.94300852 3.38215724]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ 0.98882646  3.65387479  5.9894829   5.3552407   6.633224    7.39035992
-  9.77280111 18.68143674 10.55255671 13.38975091]</t>
+          <t>[ 0.98882908  3.65301659  5.94674491  5.35759583  6.63892374  7.39787273
+  9.76691527 18.67132829 10.55043523 13.42498271]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.06584341 0.13720007 0.17765912 0.17444754 0.23183915 0.21610282
- 0.20445337 0.22832887 0.21902413 0.23141976]</t>
+          <t>[0.06581205 0.13716491 0.1763494  0.17452746 0.23204396 0.21632739
+ 0.20432869 0.22820489 0.21897962 0.2320328 ]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 2.10 $\pm$ 1.16 &amp; 8.24 $\pm$ 4.83 &amp; 0.19 $\pm$ 5.02 &amp; 40.91 $\pm$ 6.74 &amp; "-"</t>
+          <t>RNN &amp; 2.10 $\pm$ 1.16 &amp; 8.24 $\pm$ 4.84 &amp; 0.19 $\pm$ 5.04 &amp; 40.91 $\pm$ 6.74 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,22 +1325,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.78 (0.44)</t>
+          <t>0.94 (0.50)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.01 (1.67)</t>
+          <t>3.63 (1.88)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.09 (0.06)</t>
+          <t>0.10 (0.07)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>51.59 (6.43)</t>
+          <t>47.05 (6.35)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,26 +1355,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.25815954 0.80346781 1.20619541 1.17608091 1.66573108 0.32751366
- 0.29592345 0.552532   0.81885076 0.66668647]</t>
+          <t>[0.2573595  0.81654872 1.15013684 1.1378241  1.66779848 1.80931808
+ 0.31904676 0.9962601  0.56458646 0.66175513]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.99185843 2.82492802 5.26960715 4.69188885 5.98573392 1.221744
- 1.16571647 2.36030361 2.93551034 2.64631527]</t>
+          <t>[0.98878463 2.87091947 5.02469939 4.5392661  5.99316306 6.7494086
+ 1.256805   4.25581923 2.02399446 2.62674104]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.06483883 0.10283727 0.15555813 0.15188019 0.20854414 0.02921025
- 0.02105401 0.02180734 0.05747229 0.04230071]</t>
+          <t>[0.06612126 0.1047728  0.14801604 0.14666895 0.20881183 0.1969265
+ 0.02284476 0.05062746 0.03786205 0.04193693]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[45.45454545 54.54545455 47.72727273 47.72727273 52.27272727 52.27272727
- 59.09090909 45.45454545 45.45454545 65.90909091]</t>
+          <t>[43.18181818 54.54545455 47.72727273 47.72727273 47.72727273 45.45454545
+ 34.09090909 47.72727273 43.18181818 59.09090909]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 0.78 $\pm$ 0.44 &amp; 3.01 $\pm$ 1.67 &amp; 0.09 $\pm$ 6.26 &amp; 51.59 $\pm$ 6.43 &amp; "-"</t>
+          <t>LSTM &amp; 0.94 $\pm$ 0.50 &amp; 3.63 $\pm$ 1.88 &amp; 0.10 $\pm$ 6.52 &amp; 47.05 $\pm$ 6.35 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,17 +1399,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.00 (1.98)</t>
+          <t>4.02 (1.99)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15.69 (8.33)</t>
+          <t>15.76 (8.37)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.37 (0.06)</t>
+          <t>0.37 (0.07)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1429,20 +1429,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.71804094 2.49517727 2.81789639 2.79749331 3.29006747 3.65059254
- 4.81638753 7.93230753 5.44544976 6.07255656]</t>
+          <t>[0.70391091 2.48960523 2.84360944 2.79437933 3.25814139 3.69834618
+ 4.77930122 7.91992568 5.57848153 6.14183887]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[ 2.75873965  8.77284207 12.31078056 11.16039513 11.82271781 13.61802604
- 18.97295509 33.8851941  19.52147423 24.10413266]</t>
+          <t>[ 2.70445155  8.75325126 12.42311533 11.14797213 11.70799279 13.79616433
+ 18.82686283 33.83230135 19.99838184 24.37913874]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.19446479 0.3422576  0.36998272 0.36966795 0.41739277 0.40149415
- 0.39884932 0.41467779 0.40681636 0.41762815]</t>
+          <t>[0.18992704 0.34148    0.3733886  0.36925198 0.41330191 0.40678509
+ 0.39576637 0.41402972 0.41679066 0.42240429]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 4.00 $\pm$ 1.98 &amp; 15.69 $\pm$ 8.33 &amp; 0.37 $\pm$ 6.42 &amp; 40.91 $\pm$ 6.74 &amp; "-"</t>
+          <t>GRU &amp; 4.02 $\pm$ 1.99 &amp; 15.76 $\pm$ 8.37 &amp; 0.37 $\pm$ 6.62 &amp; 40.91 $\pm$ 6.74 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>52.05 (4.71)</t>
+          <t>51.36 (4.79)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.17384873 0.17445941 0.27573109 0.22632663 0.14601677 0.28587495
- 0.24679329 0.26174907 0.28333885 0.34806488]</t>
+          <t>[0.17836158 0.17588808 0.27705344 0.22693252 0.14646551 0.28732279
+ 0.24734726 0.26155622 0.28334047 0.34794083]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.66793322 0.6133852  1.20460955 0.90291353 0.52470508 1.06641659
- 0.97218049 1.11813846 1.01574567 1.38159307]</t>
+          <t>[0.68527172 0.61840832 1.21038664 0.90533072 0.52631761 1.07181755
+ 0.9743627  1.11731465 1.01575147 1.38110066]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.04424423 0.02070667 0.02965176 0.02482187 0.01504091 0.02681688
- 0.01669327 0.01085469 0.01791694 0.0205102 ]</t>
+          <t>[0.04421854 0.02043339 0.02973166 0.02486673 0.01502501 0.02696629
+ 0.01675069 0.01082877 0.01791476 0.0205011 ]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[50.         56.81818182 43.18181818 47.72727273 54.54545455 52.27272727
- 56.81818182 52.27272727 47.72727273 59.09090909]</t>
+          <t>[50.         54.54545455 43.18181818 45.45454545 54.54545455 52.27272727
+ 56.81818182 50.         47.72727273 59.09090909]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.24 $\pm$ 0.06 &amp; 0.95 $\pm$ 0.26 &amp; 0.02 $\pm$ 0.89 &amp; 52.05 $\pm$ 4.71 &amp; "-"</t>
+          <t>WaveNet &amp; 0.24 $\pm$ 0.06 &amp; 0.95 $\pm$ 0.26 &amp; 0.02 $\pm$ 0.90 &amp; 51.36 $\pm$ 4.79 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.30 (0.09)</t>
+          <t>0.28 (0.05)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.15 (0.30)</t>
+          <t>1.07 (0.19)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1562,12 +1562,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>52.05 (5.33)</t>
+          <t>51.36 (6.52)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1577,36 +1577,36 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.36037367 0.51996028 0.28044204 0.2456789  0.17627037 0.3011299
- 0.2395876  0.26928661 0.27634267 0.31905186]</t>
+          <t>[0.30605074 0.33122627 0.28437975 0.24664738 0.17734309 0.29363065
+ 0.24232761 0.26589462 0.27708545 0.34299316]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[1.38456888 1.82813843 1.22519067 0.98011802 0.6334201  1.12332306
- 0.94379547 1.15033726 0.99066496 1.26643008]</t>
+          <t>[1.17585817 1.16456487 1.24239371 0.9839817  0.63727487 1.09534815
+ 0.95458908 1.13584741 0.99332776 1.36146161]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.09224367 0.06382375 0.030819   0.02757669 0.01814575 0.0281099
- 0.01583365 0.01157254 0.01729572 0.01881845]</t>
+          <t>[0.08056911 0.03971621 0.03127336 0.02735858 0.01828792 0.02744054
+ 0.0158278  0.01133572 0.01736402 0.0206784 ]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[56.81818182 63.63636364 43.18181818 47.72727273 54.54545455 52.27272727
- 50.         52.27272727 47.72727273 52.27272727]</t>
+          <t>[56.81818182 63.63636364 40.90909091 43.18181818 56.81818182 50.
+ 47.72727273 52.27272727 47.72727273 54.54545455]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[3. 4. 4. 4. 4. 4. 4. 4. 4. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.30 $\pm$ 0.09 &amp; 1.15 $\pm$ 0.30 &amp; 0.03 $\pm$ 2.44 &amp; 52.05 $\pm$ 5.33 &amp; 4 $\pm$ 0</t>
+          <t>eTS &amp; 0.28 $\pm$ 0.05 &amp; 1.07 $\pm$ 0.19 &amp; 0.03 $\pm$ 1.89 &amp; 51.36 $\pm$ 6.52 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,27 +1621,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.36 (0.11)</t>
+          <t>0.28 (0.05)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.40 (0.46)</t>
+          <t>1.07 (0.19)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.04 (0.02)</t>
+          <t>0.03 (0.02)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>51.14 (3.97)</t>
+          <t>51.36 (6.52)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>72 (51)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1651,36 +1651,36 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.3354163  0.57675833 0.31279108 0.42112348 0.22159901 0.29925421
- 0.24232256 0.53404596 0.2601565  0.39801838]</t>
+          <t>[0.30605074 0.33122627 0.28437975 0.24664738 0.17734309 0.29363065
+ 0.24232761 0.26589462 0.27708545 0.34299316]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[1.28868174 2.02783579 1.36651668 1.68004136 0.79630663 1.11632607
- 0.95456917 2.28133501 0.93263894 1.57987626]</t>
+          <t>[1.17585817 1.16456487 1.24239371 0.9839817  0.63727487 1.09534815
+ 0.95458908 1.13584741 0.99332776 1.36146161]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.08940013 0.07285983 0.03496691 0.04691171 0.02124997 0.0278422
- 0.0152332  0.02599116 0.01598697 0.02388645]</t>
+          <t>[0.08056911 0.03971621 0.03127336 0.02735858 0.01828792 0.02744054
+ 0.0158278  0.01133572 0.01736402 0.0206784 ]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[50.         43.18181818 47.72727273 59.09090909 52.27272727 50.
- 52.27272727 52.27272727 50.         54.54545455]</t>
+          <t>[56.81818182 63.63636364 40.90909091 43.18181818 56.81818182 50.
+ 47.72727273 52.27272727 47.72727273 54.54545455]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[ 50.  95. 140. 185.  38.  72.  24.  57.  27.  32.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.36 $\pm$ 0.11 &amp; 1.40 $\pm$ 0.46 &amp; 0.04 $\pm$ 2.38 &amp; 51.14 $\pm$ 3.97 &amp; 72 $\pm$ 51</t>
+          <t>Simpl\_eTS &amp; 0.28 $\pm$ 0.05 &amp; 1.07 $\pm$ 0.19 &amp; 0.03 $\pm$ 1.89 &amp; 51.36 $\pm$ 6.52 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.27 (0.05)</t>
+          <t>0.32 (0.09)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.05 (0.22)</t>
+          <t>1.24 (0.41)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1710,51 +1710,51 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>51.14 (4.22)</t>
+          <t>52.50 (5.70)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>4 (1)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>mu: 0.3, omega: 50 \\</t>
+          <t>mu: 0.5, omega: 50 \\</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.34365183 0.19714652 0.26512675 0.2709087  0.18959251 0.28677826
- 0.2361242  0.28082353 0.27651782 0.34285758]</t>
+          <t>[0.31719625 0.32689806 0.27728557 0.24401732 0.18278821 0.41788809
+ 0.23380873 0.50044025 0.25125523 0.41004701]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[1.32032294 0.69315126 1.15828147 1.08077048 0.68129265 1.06978629
- 0.93015229 1.19962065 0.99129285 1.36092346]</t>
+          <t>[1.21867963 1.14934721 1.21140075 0.97348926 0.65684167 1.55887319
+ 0.92103107 2.13777833 0.90072865 1.62762214]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.09449358 0.02191902 0.02871618 0.02946338 0.01928518 0.02700927
- 0.0158063  0.01213102 0.01743523 0.02060288]</t>
+          <t>[0.08521365 0.03937852 0.03038395 0.02714303 0.01873742 0.03829394
+ 0.01691747 0.02406343 0.01537579 0.02438351]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[56.81818182 52.27272727 45.45454545 47.72727273 56.81818182 50.
- 50.         50.         45.45454545 56.81818182]</t>
+          <t>[56.81818182 61.36363636 43.18181818 43.18181818 56.81818182 52.27272727
+ 47.72727273 54.54545455 54.54545455 54.54545455]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[2. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[3. 3. 3. 3. 3. 5. 5. 5. 6. 6.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.27 $\pm$ 0.05 &amp; 1.05 $\pm$ 0.22 &amp; 0.03 $\pm$ 2.26 &amp; 51.14 $\pm$ 4.22 &amp; 3 $\pm$ 0</t>
+          <t>exTS &amp; 0.32 $\pm$ 0.09 &amp; 1.24 $\pm$ 0.41 &amp; 0.03 $\pm$ 1.94 &amp; 52.50 $\pm$ 5.70 &amp; 4 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.01, beta: 0.001, lambda1: 0.001, r: 0.1, s: 100 \\</t>
+          <t>alpha: 0.01, beta: 0.001, lambda1: 0.001, omega: 100, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1806,7 +1806,7 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>[1.57050035 1.24931002 1.42060722 1.32986165 1.19664647 1.08191659
- 1.23160975 1.66152531 0.94288347 1.69696952]</t>
+ 1.23160975 1.66152532 0.94288347 1.69696952]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.51 (0.26)</t>
+          <t>0.49 (0.23)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.99 (1.01)</t>
+          <t>1.91 (0.87)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>47.73 (5.93)</t>
+          <t>50.00 (7.11)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8 (2)</t>
+          <t>10 (3)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1873,36 +1873,36 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.41395038 1.08616186 0.53214733 0.37098432 0.35896301 0.32496592
- 0.29162265 0.92917883 0.3677304  0.44153376]</t>
+          <t>[0.40319958 1.04874228 0.53251134 0.52515838 0.26075476 0.32331324
+ 0.25511288 0.72698942 0.36449056 0.46558096]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[1.59041255 3.81885751 2.32483672 1.48001484 1.28991835 1.21224001
- 1.14877457 3.96926176 1.31828223 1.75260421]</t>
+          <t>[1.5491076  3.6872933  2.32642702 2.09508097 0.93701116 1.20607493
+ 1.00495342 3.10554998 1.30666767 1.84805611]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.11107579 0.13335752 0.05999295 0.03991248 0.03632863 0.03064839
- 0.02039074 0.04709304 0.0244407  0.02505231]</t>
+          <t>[0.1085366  0.1287397  0.06016017 0.05988119 0.02548356 0.03087595
+ 0.01722494 0.03628516 0.02405367 0.02684712]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[50.         38.63636364 45.45454545 45.45454545 59.09090909 43.18181818
- 47.72727273 47.72727273 43.18181818 56.81818182]</t>
+          <t>[54.54545455 38.63636364 43.18181818 40.90909091 61.36363636 47.72727273
+ 54.54545455 56.81818182 47.72727273 54.54545455]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[ 5.  5.  6.  7.  7.  9. 10. 10. 10. 11.]</t>
+          <t>[ 5.  6.  7.  9.  9. 11. 12. 12. 13. 14.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.51 $\pm$ 0.26 &amp; 1.99 $\pm$ 1.01 &amp; 0.05 $\pm$ 3.68 &amp; 47.73 $\pm$ 5.93 &amp; 8 $\pm$ 2</t>
+          <t>eMG &amp; 0.49 $\pm$ 0.23 &amp; 1.91 $\pm$ 0.87 &amp; 0.05 $\pm$ 3.64 &amp; 50.00 $\pm$ 7.11 &amp; 10 $\pm$ 3</t>
         </is>
       </c>
     </row>
@@ -1917,22 +1917,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.78 (1.24)</t>
+          <t>0.28 (0.05)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.97 (4.62)</t>
+          <t>1.08 (0.19)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.08 (0.14)</t>
+          <t>0.03 (0.02)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>51.59 (6.75)</t>
+          <t>51.59 (6.43)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1942,31 +1942,31 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.1, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.5, sigma: 0.5 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.3087094  0.36515281 0.28531653 0.34917574 0.40622782 4.49012287
- 0.24949679 0.65462243 0.28905426 0.38322707]</t>
+          <t>[0.30043636 0.36257941 0.28515778 0.24717007 0.17818523 0.29406916
+ 0.24158822 0.26557625 0.27627831 0.34268628]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[ 1.18607283  1.28384783  1.24648629  1.3930111   1.45976244 16.74977678
-  0.98283025  2.79641304  1.03623494  1.52116427]</t>
+          <t>[1.15428752 1.27479995 1.24579276 0.98606695 0.64030104 1.09698398
+ 0.9516764  1.13448736 0.99043425 1.36024349]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.08144354 0.04417711 0.03154296 0.03924541 0.04659203 0.49473072
- 0.01801432 0.03256029 0.01849378 0.02294292]</t>
+          <t>[0.07878124 0.04375067 0.03153225 0.02729732 0.01833388 0.02742547
+ 0.0157978  0.01133092 0.01727898 0.02068396]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[56.81818182 63.63636364 40.90909091 43.18181818 56.81818182 52.27272727
- 45.45454545 54.54545455 47.72727273 54.54545455]</t>
+          <t>[56.81818182 63.63636364 40.90909091 45.45454545 54.54545455 52.27272727
+ 43.18181818 52.27272727 54.54545455 52.27272727]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.78 $\pm$ 1.24 &amp; 2.97 $\pm$ 4.62 &amp; 0.08 $\pm$ 13.84 &amp; 51.59 $\pm$ 6.75 &amp; 1 $\pm$ 0</t>
+          <t>ePL+ &amp; 0.28 $\pm$ 0.05 &amp; 1.08 $\pm$ 0.19 &amp; 0.03 $\pm$ 1.87 &amp; 51.59 $\pm$ 6.43 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3.83 (3.03)</t>
+          <t>2.97 (2.55)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14.67 (10.87)</t>
+          <t>11.59 (10.24)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.26 (0.29)</t>
+          <t>0.21 (0.20)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50.00 (8.86)</t>
+          <t>49.77 (7.90)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20 (0)</t>
+          <t>20 (7)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.25, e\_utility: 0.05, lambda1: 1e-07, sigma: 0.5 \\</t>
+          <t>alpha: 0.1, beta: 0.25, e\_utility: 0.03, lambda1: 1e-07, sigma: 0.5 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[ 1.11096282  5.54932576  3.95988747  5.1592368  11.7288117   2.28717967
-  1.43971678  3.01376953  0.97689546  3.09019536]</t>
+          <t>[0.83896192 6.26461278 7.83807527 0.69865316 5.89939029 1.27300097
+ 0.67523108 2.36441787 1.12480643 2.75244448]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[ 4.26835996 19.51098191 17.29989287 20.58239819 42.14698701  8.53200458
-  5.67140447 12.87420653  3.50208712 12.26608237]</t>
+          <t>[ 3.22332249 22.02587339 34.24285755  2.78722574 21.19920862  4.74875248
+  2.6599041  10.10030914  4.03233537 10.92542923]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.17077292 0.34998551 0.3466911  0.27565901 1.06015777 0.12252743
- 0.05234444 0.09598472 0.0516872  0.12128906]</t>
+          <t>[0.13394325 0.42265382 0.53689259 0.07166199 0.54926677 0.09170065
+ 0.03398716 0.10582921 0.06172739 0.10220212]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[63.63636364 47.72727273 43.18181818 47.72727273 63.63636364 38.63636364
- 50.         54.54545455 54.54545455 36.36363636]</t>
+          <t>[65.90909091 50.         54.54545455 52.27272727 56.81818182 45.45454545
+ 36.36363636 47.72727273 40.90909091 47.72727273]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[20. 20. 20. 20. 20. 20. 20. 20. 20. 20.]</t>
+          <t>[19. 34. 25. 23. 23. 20. 18. 14. 10. 10.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 3.83 $\pm$ 3.03 &amp; 14.67 $\pm$ 10.87 &amp; 0.26 $\pm$ 28.56 &amp; 50.00 $\pm$ 8.86 &amp; 20 $\pm$ 0</t>
+          <t>ePL-KRLS-DISCO &amp; 2.97 $\pm$ 2.55 &amp; 11.59 $\pm$ 10.24 &amp; 0.21 $\pm$ 19.53 &amp; 49.77 $\pm$ 7.90 &amp; 20 $\pm$ 7</t>
         </is>
       </c>
     </row>
@@ -2065,66 +2065,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.84 (0.43)</t>
+          <t>0.66 (0.35)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.27 (1.74)</t>
+          <t>2.56 (1.41)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.08 (0.03)</t>
+          <t>0.06 (0.03)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>52.95 (6.97)</t>
+          <t>46.59 (7.55)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>8 (0)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: min, rules: 4 \\</t>
+          <t>fuzzy\_operator: max, rules: 8 \\</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.31367296 0.98673211 0.64046321 0.418974   1.24800157 0.39401698
- 0.52935935 1.63122321 0.96313982 1.28834193]</t>
+          <t>[0.24720196 1.13182634 0.54230621 0.44534107 0.98643486 0.27057467
+ 0.35424871 1.30173444 0.510004   0.79339295]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[1.20514303 3.46927052 2.79804541 1.67146617 4.48464069 1.46982535
- 2.0852789  6.96825167 3.45277435 5.11388648]</t>
+          <t>[0.949759   3.97941014 2.36921869 1.77665566 3.54471179 1.00934103
+ 1.39547428 5.56074305 1.82832096 3.14925826]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.08092799 0.12304664 0.07826526 0.04688962 0.14627718 0.03477814
- 0.03932151 0.08433111 0.06867752 0.08677526]</t>
+          <t>[0.06375268 0.13528025 0.06038518 0.04995166 0.11344816 0.0266623
+ 0.02572194 0.06688447 0.033156   0.05158837]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[59.09090909 47.72727273 52.27272727 43.18181818 56.81818182 50.
- 43.18181818 59.09090909 52.27272727 65.90909091]</t>
+          <t>[50.         40.90909091 34.09090909 43.18181818 40.90909091 56.81818182
+ 61.36363636 45.45454545 45.45454545 47.72727273]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[4. 4. 4. 4. 4. 4. 4. 4. 4. 4.]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.84 $\pm$ 0.43 &amp; 3.27 $\pm$ 1.74 &amp; 0.08 $\pm$ 3.35 &amp; 52.95 $\pm$ 6.97 &amp; 4 $\pm$ 0</t>
+          <t>NMR &amp; 0.66 $\pm$ 0.35 &amp; 2.56 $\pm$ 1.41 &amp; 0.06 $\pm$ 3.42 &amp; 46.59 $\pm$ 7.55 &amp; 8 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.28 (0.06)</t>
+          <t>0.29 (0.06)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.09 (0.21)</t>
+          <t>1.11 (0.22)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>51.59 (4.55)</t>
+          <t>50.91 (6.44)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2238,31 +2238,31 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: max, rules: 8 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 8 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.2988555  0.40077496 0.27665727 0.24372041 0.17418494 0.29784127
- 0.24024418 0.26565212 0.27512116 0.34002661]</t>
+          <t>[0.31015733 0.43499154 0.26010847 0.25771479 0.18856653 0.2963362
+ 0.23703847 0.26756377 0.27343899 0.33789518]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[1.14821379 1.40909244 1.20865586 0.97230475 0.6259262  1.11105528
- 0.94638191 1.13481147 0.98628597 1.3496863 ]</t>
+          <t>[1.19163586 1.52939519 1.13635772 1.0281343  0.67760582 1.10544085
+ 0.93375381 1.14297767 0.98025554 1.34122593]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.07854454 0.04905487 0.03026855 0.02687007 0.01788948 0.02775037
- 0.01575926 0.01139942 0.01716272 0.02040829]</t>
+          <t>[0.08125001 0.05323002 0.02820986 0.02856574 0.01881962 0.02760034
+ 0.01561457 0.01152825 0.01704839 0.02021766]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[56.81818182 56.81818182 43.18181818 45.45454545 54.54545455 54.54545455
- 47.72727273 50.         52.27272727 54.54545455]</t>
+          <t>[47.72727273 59.09090909 40.90909091 40.90909091 56.81818182 52.27272727
+ 45.45454545 56.81818182 52.27272727 56.81818182]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.28 $\pm$ 0.06 &amp; 1.09 $\pm$ 0.21 &amp; 0.03 $\pm$ 1.92 &amp; 51.59 $\pm$ 4.55 &amp; 8 $\pm$ 0</t>
+          <t>NTSK-wRLS &amp; 0.29 $\pm$ 0.06 &amp; 1.11 $\pm$ 0.22 &amp; 0.03 $\pm$ 2.03 &amp; 50.91 $\pm$ 6.44 &amp; 8 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2287,66 +2287,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.83 (0.60)</t>
+          <t>0.65 (0.39)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.20 (2.28)</t>
+          <t>2.50 (1.46)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.08 (0.06)</t>
+          <t>0.07 (0.04)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>49.55 (6.88)</t>
+          <t>46.14 (4.77)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15 (1)</t>
+          <t>13 (1)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 15, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: max, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 13, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.29972106 1.63200916 0.87661867 0.52709957 1.85128962 0.31364958
- 0.22749599 1.61371347 0.34978932 0.58038428]</t>
+          <t>[0.25891305 1.33225135 0.56145048 0.43199382 1.13110092 0.29025444
+ 0.26891266 1.14215795 0.36716626 0.70357274]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[1.1515393  5.7380126  3.8297576  2.1028252  6.65253068 1.170026
- 0.89616362 6.89345361 1.25396497 2.30375125]</t>
+          <t>[0.99475342 4.68408831 2.45285587 1.72340777 4.06456315 1.08275369
+ 1.05931423 4.87906495 1.31625982 2.79272995]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.07808867 0.18595363 0.08788037 0.05869062 0.21122622 0.03103644
- 0.01517296 0.07605253 0.02265404 0.03604502]</t>
+          <t>[0.06753638 0.15881945 0.06588513 0.04932615 0.13323593 0.02870568
+ 0.01934278 0.05841419 0.0243372  0.04493855]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[59.09090909 43.18181818 59.09090909 47.72727273 36.36363636 50.
- 50.         54.54545455 43.18181818 52.27272727]</t>
+          <t>[50.         36.36363636 52.27272727 50.         50.         47.72727273
+ 43.18181818 47.72727273 40.90909091 43.18181818]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[12. 15. 15. 15. 15. 15. 15. 15. 15. 15.]</t>
+          <t>[11. 13. 13. 13. 13. 13. 13. 13. 13. 13.]</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.83 $\pm$ 0.60 &amp; 3.20 $\pm$ 2.28 &amp; 0.08 $\pm$ 6.39 &amp; 49.55 $\pm$ 6.88 &amp; 15 $\pm$ 1</t>
+          <t>GEN-NMR &amp; 0.65 $\pm$ 0.39 &amp; 2.50 $\pm$ 1.46 &amp; 0.07 $\pm$ 4.38 &amp; 46.14 $\pm$ 4.77 &amp; 13 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.29 (0.06)</t>
+          <t>0.30 (0.06)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.13 (0.26)</t>
+          <t>1.15 (0.26)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>50.00 (5.57)</t>
+          <t>51.14 (5.21)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: prod, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: prod, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.37180714 0.28456858 0.27167965 0.2595045  0.18648647 0.33820722
- 0.22219407 0.35649639 0.269709   0.35023034]</t>
+          <t>[0.3101014  0.39475584 0.26956598 0.2562441  0.19860394 0.31139609
+ 0.22140766 0.35224936 0.269709   0.3876858 ]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[1.42849668 1.00052019 1.18690972 1.03527422 0.6701312  1.26163483
- 0.87527803 1.52287961 0.96688384 1.39018853]</t>
+          <t>[1.19142095 1.38792971 1.17767553 1.02226711 0.71367483 1.16161968
+ 0.87218014 1.50473717 0.96688384 1.53886258]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.10178092 0.03244189 0.02952555 0.02870033 0.01888726 0.03065242
- 0.01505169 0.01629636 0.01657296 0.02056754]</t>
+          <t>[0.08247571 0.04605517 0.02938219 0.02847692 0.01986296 0.02852754
+ 0.01533281 0.01606388 0.01657296 0.02247298]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[59.09090909 50.         43.18181818 50.         59.09090909 45.45454545
- 45.45454545 52.27272727 43.18181818 52.27272727]</t>
+          <t>[61.36363636 52.27272727 45.45454545 45.45454545 50.         52.27272727
+ 52.27272727 52.27272727 43.18181818 56.81818182]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.29 $\pm$ 0.06 &amp; 1.13 $\pm$ 0.26 &amp; 0.03 $\pm$ 2.44 &amp; 50.00 $\pm$ 5.57 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.30 $\pm$ 0.06 &amp; 1.15 $\pm$ 0.26 &amp; 0.03 $\pm$ 1.94 &amp; 51.14 $\pm$ 5.21 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.28 (0.05)</t>
+          <t>0.27 (0.04)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.09 (0.21)</t>
+          <t>1.07 (0.18)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2450,51 +2450,51 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>52.50 (4.60)</t>
+          <t>51.82 (7.32)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>9 (0)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: max, rules: 8 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: CPPM, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 9, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.30267815 0.37896074 0.28179438 0.24954842 0.17260629 0.29529616
- 0.23974851 0.26424859 0.27336873 0.34284518]</t>
+          <t>[0.3075883  0.29516915 0.27370834 0.27172593 0.17847425 0.2956433
+ 0.24115705 0.26636817 0.27862828 0.33861979]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[1.16290058 1.33239539 1.23109876 0.9955552  0.62025338 1.10156114
- 0.94442933 1.12881588 0.98000363 1.36087421]</t>
+          <t>[1.18176556 1.03779094 1.1957726  1.08403073 0.64133965 1.10285609
+ 0.94997792 1.1378703  0.9988587  1.34410216]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.0790499  0.04591222 0.03096809 0.02762796 0.01779605 0.02726524
- 0.01587862 0.0112464  0.01715344 0.02064858]</t>
+          <t>[0.08137692 0.03483836 0.03013033 0.02993736 0.01833842 0.02729325
+ 0.01574799 0.01145331 0.01707913 0.02020237]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[56.81818182 54.54545455 47.72727273 43.18181818 61.36363636 52.27272727
- 52.27272727 52.27272727 52.27272727 52.27272727]</t>
+          <t>[61.36363636 68.18181818 47.72727273 45.45454545 52.27272727 52.27272727
+ 45.45454545 52.27272727 43.18181818 50.        ]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
+          <t>[8. 8. 9. 9. 9. 9. 9. 9. 9. 9.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.28 $\pm$ 0.05 &amp; 1.09 $\pm$ 0.21 &amp; 0.03 $\pm$ 1.90 &amp; 52.50 $\pm$ 4.60 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.27 $\pm$ 0.04 &amp; 1.07 $\pm$ 0.18 &amp; 0.03 $\pm$ 1.90 &amp; 51.82 $\pm$ 7.32 &amp; 9 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.81 (0.44)</t>
+          <t>0.81 (0.39)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.12 (1.72)</t>
+          <t>3.15 (1.61)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.07 (0.04)</t>
+          <t>0.08 (0.04)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>47.27 (6.25)</t>
+          <t>50.68 (6.27)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: median, n\_estimators: 50 \\</t>
+          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.28090579 1.06161736 0.60576244 0.42162706 1.47532943 0.33006846
- 0.44346096 1.50764701 0.83340745 1.09110433]</t>
+          <t>[0.28652528 1.05538445 0.83300959 0.48238933 1.23496518 0.33207947
+ 0.44405986 1.5076959  0.82036358 1.09268435]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[1.07925037 3.73256103 2.64644522 1.68205036 5.30153369 1.23127434
- 1.74690362 6.44035941 2.98769483 4.33098043]</t>
+          <t>[1.10084066 3.71064663 3.63923894 1.92445699 4.43779497 1.23877612
+ 1.74926284 6.44056825 2.94093366 4.33725208]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.07281457 0.12913482 0.07041758 0.04636686 0.15564866 0.02912465
- 0.03208506 0.07779423 0.05868173 0.07287262]</t>
+          <t>[0.07364258 0.13251883 0.10477693 0.05449986 0.13896566 0.02950427
+ 0.03212777 0.07779684 0.05753804 0.07298467]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[54.54545455 36.36363636 36.36363636 45.45454545 47.72727273 50.
- 50.         54.54545455 52.27272727 45.45454545]</t>
+          <t>[56.81818182 40.90909091 43.18181818 50.         45.45454545 47.72727273
+ 50.         56.81818182 54.54545455 61.36363636]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.81 $\pm$ 0.44 &amp; 3.12 $\pm$ 1.72 &amp; 0.07 $\pm$ 3.81 &amp; 47.27 $\pm$ 6.25 &amp; "-"</t>
+          <t>R-NMR &amp; 0.81 $\pm$ 0.39 &amp; 3.15 $\pm$ 1.61 &amp; 0.08 $\pm$ 3.59 &amp; 50.68 $\pm$ 6.27 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.29 (0.06)</t>
+          <t>0.27 (0.05)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.11 (0.21)</t>
+          <t>1.07 (0.19)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>51.82 (4.64)</t>
+          <t>50.45 (5.45)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: max, rules: 8 \\</t>
+          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.30139616 0.41609674 0.27929695 0.24705514 0.19588974 0.29448405
- 0.24001261 0.26834273 0.27563724 0.3428004 ]</t>
+          <t>[0.290347   0.33439696 0.28101533 0.24572265 0.1728711  0.29862063
+ 0.24010278 0.26692374 0.27698919 0.34252387]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[1.1579751  1.46296259 1.22018802 0.98560844 0.70392146 1.09853165
- 0.94546968 1.14630524 0.98813607 1.36069647]</t>
+          <t>[1.11552384 1.17571275 1.22769527 0.98029255 0.62120495 1.11396259
+ 0.94582488 1.14024359 0.9929827  1.35959884]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.07936219 0.05081515 0.03074998 0.0275218  0.01985363 0.02746675
- 0.01573819 0.01152751 0.01732245 0.02068713]</t>
+          <t>[0.07562107 0.04019337 0.03093227 0.02742448 0.01776485 0.0280392
+ 0.01581314 0.01139543 0.01713867 0.0206785 ]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[59.09090909 56.81818182 45.45454545 45.45454545 54.54545455 52.27272727
- 45.45454545 52.27272727 52.27272727 54.54545455]</t>
+          <t>[56.81818182 63.63636364 45.45454545 45.45454545 47.72727273 47.72727273
+ 47.72727273 50.         47.72727273 52.27272727]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.29 $\pm$ 0.06 &amp; 1.11 $\pm$ 0.21 &amp; 0.03 $\pm$ 1.94 &amp; 51.82 $\pm$ 4.64 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.27 $\pm$ 0.05 &amp; 1.07 $\pm$ 0.19 &amp; 0.03 $\pm$ 1.77 &amp; 50.45 $\pm$ 5.45 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2657,22 +2657,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.34 (0.10)</t>
+          <t>0.33 (0.09)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.33 (0.41)</t>
+          <t>1.30 (0.38)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.04 (0.02)</t>
+          <t>0.03 (0.02)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>52.27 (5.47)</t>
+          <t>50.23 (4.82)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.30187632 0.56456441 0.3092054  0.29578008 0.32654387 0.27981727
- 0.22181514 0.51251174 0.26232581 0.35693894]</t>
+          <t>[0.29608139 0.50204917 0.30314723 0.29715328 0.30662078 0.28355582
+ 0.2204809  0.51165563 0.26269293 0.35291998]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[1.15981989 1.98496294 1.35085161 1.17999303 1.17342155 1.04381928
- 0.87378531 2.18934524 0.94041571 1.41681737]</t>
+          <t>[1.13755557 1.76516441 1.32438478 1.18547129 1.10182874 1.05776543
+ 0.86852942 2.18568812 0.9417318  1.40086469]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.08011338 0.06955035 0.03433269 0.03247901 0.03446362 0.02669685
- 0.01527167 0.02498149 0.01627297 0.02142368]</t>
+          <t>[0.07814364 0.06198273 0.03314253 0.03254128 0.03227417 0.02727059
+ 0.01504663 0.02494294 0.0163259  0.02113889]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[63.63636364 56.81818182 45.45454545 45.45454545 54.54545455 52.27272727
- 45.45454545 52.27272727 52.27272727 54.54545455]</t>
+          <t>[59.09090909 59.09090909 45.45454545 47.72727273 47.72727273 45.45454545
+ 47.72727273 50.         47.72727273 52.27272727]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.34 $\pm$ 0.10 &amp; 1.33 $\pm$ 0.41 &amp; 0.04 $\pm$ 2.08 &amp; 52.27 $\pm$ 5.47 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.33 $\pm$ 0.09 &amp; 1.30 $\pm$ 0.38 &amp; 0.03 $\pm$ 1.92 &amp; 50.23 $\pm$ 4.82 &amp; "-"</t>
         </is>
       </c>
     </row>
